--- a/600 Essential Words.xlsx
+++ b/600 Essential Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\24_Tieng_Anh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF450BD9-6E45-4520-9CAD-DE6C306C7C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097A76DC-29C9-4DAC-81AC-C86D9352F664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>New word</t>
   </si>
@@ -133,10 +133,34 @@
     <t>Once the customer compared the two products, her choice was easy.</t>
   </si>
   <si>
-    <t>sdsd</t>
-  </si>
-  <si>
-    <t>sdsds</t>
+    <t>The sales assurance that the missing keyboard would be replaced the next day.</t>
+  </si>
+  <si>
+    <t>/əˈʃʊərəns/</t>
+  </si>
+  <si>
+    <t>aguarantee; confidence, promise</t>
+  </si>
+  <si>
+    <t>Đảm bảo, tự tin</t>
+  </si>
+  <si>
+    <t>/ˌkænsəˈleɪʃn/</t>
+  </si>
+  <si>
+    <t>Sự hủy bỏ</t>
+  </si>
+  <si>
+    <t>annulment, stopping</t>
+  </si>
+  <si>
+    <t>The cancellation of hẻ flight caused her problems for the rest of the week.</t>
+  </si>
+  <si>
+    <t>a statement that something will certainly be true or will certainly happen, particularly when there has been doubt about it</t>
+  </si>
+  <si>
+    <t>a decision to stop something that has already been arranged from happening; a statement that something will not happen</t>
   </si>
 </sst>
 </file>
@@ -519,16 +543,16 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="2" customWidth="1"/>
     <col min="4" max="5" width="22.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="71.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="26.5703125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
@@ -560,7 +584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -578,9 +602,6 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
@@ -605,18 +626,51 @@
       <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/600 Essential Words.xlsx
+++ b/600 Essential Words.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\24_Tieng_Anh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097A76DC-29C9-4DAC-81AC-C86D9352F664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A03ECA-B8D2-4905-9F5C-5C6C93AA4764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
     <sheet name="Marketing" sheetId="2" r:id="rId2"/>
+    <sheet name="Warranties" sheetId="3" r:id="rId3"/>
+    <sheet name="Bussines Planning" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -542,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A27D3A8-4935-4F85-8766-19729B16688D}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -604,7 +606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -768,4 +770,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CABAF6-FA53-4D3E-8A12-7EDBC9D7D268}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706A808F-52EA-4095-A8AC-2E25ADECFB0A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/600 Essential Words.xlsx
+++ b/600 Essential Words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\24_Tieng_Anh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A03ECA-B8D2-4905-9F5C-5C6C93AA4764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DCB1B6-D68E-44BF-BE55-80036B9B317A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>New word</t>
   </si>
@@ -163,6 +163,174 @@
   </si>
   <si>
     <t>a decision to stop something that has already been arranged from happening; a statement that something will not happen</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>After reading the contract, I was still unable to determine if our company was liable for back wages.</t>
+  </si>
+  <si>
+    <t>/dɪˈtɜːmɪn/</t>
+  </si>
+  <si>
+    <t>to discover the facts about something; to calculate something exactly</t>
+  </si>
+  <si>
+    <t>to find out; to influence; establish</t>
+  </si>
+  <si>
+    <t>Quyết định, xác định</t>
+  </si>
+  <si>
+    <t>/ɪnˈɡeɪdʒ/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>engage something/somebody (formal)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to succeed in attracting and keeping somebody’s attention and interest</t>
+    </r>
+  </si>
+  <si>
+    <t>participate; involve</t>
+  </si>
+  <si>
+    <t>Thu hút</t>
+  </si>
+  <si>
+    <t>Before engage in a new business, it is important to do thorough research.</t>
+  </si>
+  <si>
+    <t>Through her many books and interview, Dr.Wan established herself as an authority on conflict resolution.</t>
+  </si>
+  <si>
+    <t>/ɪˈstæblɪʃ/</t>
+  </si>
+  <si>
+    <t>to institule permanently; to bring about, set up</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>establish something</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to start or create an organization, a system, etc. that is meant to last for a long time</t>
+    </r>
+  </si>
+  <si>
+    <t>Thành lập, chứng minh, củng cố</t>
+  </si>
+  <si>
+    <t>/əˈbaɪd/</t>
+  </si>
+  <si>
+    <t>to blind legally ỏ morally</t>
+  </si>
+  <si>
+    <t>The contractor was obligated by the contract to work 40 hours a week.</t>
+  </si>
+  <si>
+    <t>Bắt buộc.</t>
+  </si>
+  <si>
+    <t>/ˈɒb.lɪ.ɡeɪt/</t>
+  </si>
+  <si>
+    <t>to force someone to do something, or to make it necessary for someone to do something</t>
+  </si>
+  <si>
+    <t>/prəˈvɪʒn/</t>
+  </si>
+  <si>
+    <t>The father made provisions for his children through his will.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>provision for somebody/something</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> preparations that you make for something that might or will happen in the future</t>
+    </r>
+  </si>
+  <si>
+    <t>cung cấp , giao kèo điều khoản</t>
+  </si>
+  <si>
+    <t>a measure  taken before;a stipulation</t>
+  </si>
+  <si>
+    <t>/rɪˈzɒlv/</t>
+  </si>
+  <si>
+    <t>to find an acceptable solution to a problem or difficulty</t>
+  </si>
+  <si>
+    <t>The mediator was able to resolve the problem to everyone's satisfaction.</t>
+  </si>
+  <si>
+    <t>to deal with successfully; to declare; conviction</t>
+  </si>
+  <si>
+    <t>kiên quyết, thông qua</t>
+  </si>
+  <si>
+    <t>adj</t>
+  </si>
+  <si>
+    <t>rõ ràng, cụ thể, đặc trung riêng biệt</t>
+  </si>
+  <si>
+    <t>/spəˈsɪfɪk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> connected with one particular thing only</t>
+  </si>
+  <si>
+    <t>particular, precise, peculiar</t>
+  </si>
+  <si>
+    <t>The customer's specific complanit not addressed in his e-mail.</t>
   </si>
 </sst>
 </file>
@@ -544,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A27D3A8-4935-4F85-8766-19729B16688D}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -555,7 +723,7 @@
     <col min="3" max="3" width="33.28515625" style="2" customWidth="1"/>
     <col min="4" max="5" width="22.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="98.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="26.5703125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -596,6 +764,9 @@
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
@@ -679,21 +850,93 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -704,15 +947,69 @@
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -788,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706A808F-52EA-4095-A8AC-2E25ADECFB0A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/600 Essential Words.xlsx
+++ b/600 Essential Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\24_Tieng_Anh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DCB1B6-D68E-44BF-BE55-80036B9B317A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E437927A-A8D2-45E3-B24F-9AEDB4AAAFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>New word</t>
   </si>
@@ -252,9 +252,6 @@
     <t>/əˈbaɪd/</t>
   </si>
   <si>
-    <t>to blind legally ỏ morally</t>
-  </si>
-  <si>
     <t>The contractor was obligated by the contract to work 40 hours a week.</t>
   </si>
   <si>
@@ -331,6 +328,24 @@
   </si>
   <si>
     <t>The customer's specific complanit not addressed in his e-mail.</t>
+  </si>
+  <si>
+    <t>/ˈpɑːti/</t>
+  </si>
+  <si>
+    <t>a social occasion, often in a person’s home, at which people eat, drink, talk, dance and enjoy themselve</t>
+  </si>
+  <si>
+    <t>to blind legally or morally</t>
+  </si>
+  <si>
+    <t>Tiệc tùng, đảng</t>
+  </si>
+  <si>
+    <t>a person or group participating in an action or plan; the persons or sides concerned in a legal matter</t>
+  </si>
+  <si>
+    <t>The parties agreed to a settlement in their contract dispute.</t>
   </si>
 </sst>
 </file>
@@ -713,7 +728,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -923,25 +938,43 @@
         <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -951,19 +984,19 @@
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -974,19 +1007,19 @@
         <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -994,22 +1027,22 @@
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1023,7 +1056,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,26 +1104,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CABAF6-FA53-4D3E-8A12-7EDBC9D7D268}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706A808F-52EA-4095-A8AC-2E25ADECFB0A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/600 Essential Words.xlsx
+++ b/600 Essential Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\24_Tieng_Anh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E437927A-A8D2-45E3-B24F-9AEDB4AAAFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EA9904-61A8-496A-85D2-0373ADE2EACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
   <si>
     <t>New word</t>
   </si>
@@ -346,6 +346,186 @@
   </si>
   <si>
     <t>The parties agreed to a settlement in their contract dispute.</t>
+  </si>
+  <si>
+    <t>/ˈkontrӕkt/</t>
+  </si>
+  <si>
+    <t>hợp đồng</t>
+  </si>
+  <si>
+    <t>an official written agreement</t>
+  </si>
+  <si>
+    <t>All employees have a written contract of employment.</t>
+  </si>
+  <si>
+    <t>integral</t>
+  </si>
+  <si>
+    <t>/ˈɪntɪɡrəl/</t>
+  </si>
+  <si>
+    <t>Music is an integral part of the school's curriculum.</t>
+  </si>
+  <si>
+    <t>một phần không thể thiếu của cái gì đó</t>
+  </si>
+  <si>
+    <t>[usually before noun] being an essential part of something</t>
+  </si>
+  <si>
+    <t>terms</t>
+  </si>
+  <si>
+    <t>Điều khoản điều lệ</t>
+  </si>
+  <si>
+    <t>the conditions that people offer, demand or accept when they make an agreement, an arrangement or a contract</t>
+  </si>
+  <si>
+    <t>These are the terms and conditions of your employment.</t>
+  </si>
+  <si>
+    <t>/tɜːmz/</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>bao gồm</t>
+  </si>
+  <si>
+    <t>/ɪnˈkluːd/</t>
+  </si>
+  <si>
+    <t>certain</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>/ˈsɜːtn/</t>
+  </si>
+  <si>
+    <t>I think it was him, but I can't be certain.</t>
+  </si>
+  <si>
+    <t>chính xác, chắc chắn</t>
+  </si>
+  <si>
+    <t>sure, definite, guaranteed, bound</t>
+  </si>
+  <si>
+    <t>if one thing includes another, it has the second thing as one of its parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> include something The tour included a visit to the Science Museum.</t>
+  </si>
+  <si>
+    <t>strongly believing something; having no doubts</t>
+  </si>
+  <si>
+    <t>the standard of something when it is compared to other things like it; how good or bad something is</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>of… quality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The soil here is of poor quality</t>
+    </r>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to take goods, letters, etc. to the person or people they have been sent to</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> deliver something to somebody/something</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Leaflets have been delivered to every household.</t>
+    </r>
+  </si>
+  <si>
+    <t>excellence</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>Giao, trình bày</t>
+  </si>
+  <si>
+    <t>/dɪˈlɪvə(r)/</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>/kənˈdɪʃn/</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>Điều kiện, quy định, tình trạng</t>
+  </si>
+  <si>
+    <t>the state that something is in</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the condition of something.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The condition of the roads is poor.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -725,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A27D3A8-4935-4F85-8766-19729B16688D}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1043,6 +1223,172 @@
       </c>
       <c r="G13" s="2" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/600 Essential Words.xlsx
+++ b/600 Essential Words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\24_Tieng_Anh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EA9904-61A8-496A-85D2-0373ADE2EACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D22BC7-51BF-459B-B1DF-555C5AC45C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="138">
   <si>
     <t>New word</t>
   </si>
@@ -526,6 +526,42 @@
       </rPr>
       <t xml:space="preserve"> The condition of the roads is poor.</t>
     </r>
+  </si>
+  <si>
+    <t>attract</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>consume</t>
+  </si>
+  <si>
+    <t>convince</t>
+  </si>
+  <si>
+    <t>currently</t>
+  </si>
+  <si>
+    <t>fad</t>
+  </si>
+  <si>
+    <t>inspiration</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>persuasion</t>
+  </si>
+  <si>
+    <t>productive</t>
+  </si>
+  <si>
+    <t>satisfaction</t>
   </si>
 </sst>
 </file>
@@ -907,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A27D3A8-4935-4F85-8766-19729B16688D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -1399,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E67EC8-FDA7-4670-9A5F-4B6B3A3B70CF}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,6 +1477,66 @@
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/600 Essential Words.xlsx
+++ b/600 Essential Words.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\24_Tieng_Anh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D22BC7-51BF-459B-B1DF-555C5AC45C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2E35E9-F1DA-4837-9539-51FF722628B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
     <sheet name="Marketing" sheetId="2" r:id="rId2"/>
     <sheet name="Warranties" sheetId="3" r:id="rId3"/>
     <sheet name="Bussines Planning" sheetId="4" r:id="rId4"/>
+    <sheet name="Conferences" sheetId="5" r:id="rId5"/>
+    <sheet name="Computer" sheetId="6" r:id="rId6"/>
+    <sheet name="Office Technology" sheetId="7" r:id="rId7"/>
+    <sheet name="Office Procedures" sheetId="8" r:id="rId8"/>
+    <sheet name="Electronics" sheetId="9" r:id="rId9"/>
+    <sheet name="Correspondence" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="143">
   <si>
     <t>New word</t>
   </si>
@@ -562,6 +568,39 @@
   </si>
   <si>
     <t>satisfaction</t>
+  </si>
+  <si>
+    <t>specify</t>
+  </si>
+  <si>
+    <t>/ˈspesɪfaɪ/</t>
+  </si>
+  <si>
+    <t>to state something, especially by giving an exact measurement, time, exact instructions, etc.</t>
+  </si>
+  <si>
+    <t>Chỉ rõ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>specify something</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Remember to specify your size when ordering clothes.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -941,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A27D3A8-4935-4F85-8766-19729B16688D}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -959,7 +998,7 @@
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1427,9 +1466,70 @@
         <v>125</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80670381-DD9F-4261-8066-B2BF25AFC9D0}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1437,7 +1537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E67EC8-FDA7-4670-9A5F-4B6B3A3B70CF}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1624,4 +1724,209 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2231605C-DA64-4042-9E8B-22EE8F4A938D}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4736383-45A5-49CE-B63B-BA660809F3A0}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3A5951-23B9-4BBC-8127-9872C4CCF12A}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D63500-8009-457F-B7E9-D441A78DE767}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FEA63D-963C-4996-B845-5326775236FC}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/600 Essential Words.xlsx
+++ b/600 Essential Words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\24_Tieng_Anh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2E35E9-F1DA-4837-9539-51FF722628B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A4DD90-CB08-403B-BCA9-48551876FD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="192">
   <si>
     <t>New word</t>
   </si>
@@ -601,6 +601,189 @@
       </rPr>
       <t xml:space="preserve"> Remember to specify your size when ordering clothes.</t>
     </r>
+  </si>
+  <si>
+    <t>/ˈrentl/</t>
+  </si>
+  <si>
+    <t>rental</t>
+  </si>
+  <si>
+    <t>Tiền thuê nhà</t>
+  </si>
+  <si>
+    <t>the amount of money that you pay to use something for a particular period of time</t>
+  </si>
+  <si>
+    <t>the world’s largest car rental company</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>/ˈprɒpəti/</t>
+  </si>
+  <si>
+    <t>Bất đổng sản</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> land and buildings</t>
+  </si>
+  <si>
+    <t>A sign indicates that it is now private property.</t>
+  </si>
+  <si>
+    <t>building, complex, block, premises</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>Đầu tư</t>
+  </si>
+  <si>
+    <t>/ɪnˈvest/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to buy property, shares in a company, etc. in the hope of making a profit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>invest in something</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> She advised us to invest in the property market.</t>
+    </r>
+  </si>
+  <si>
+    <t>Phẩm chất, chất lượng</t>
+  </si>
+  <si>
+    <t>/ˈkwɒləti/</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>/əˈpriːʃieɪt/</t>
+  </si>
+  <si>
+    <t>đánh giá cao</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>appreciate somebody/something</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to recognize the good qualities of somebody/something</t>
+    </r>
+  </si>
+  <si>
+    <t>His talents are not fully appreciated in that company.</t>
+  </si>
+  <si>
+    <t>realize</t>
+  </si>
+  <si>
+    <t>hesitate</t>
+  </si>
+  <si>
+    <t>Ngần ngại</t>
+  </si>
+  <si>
+    <t>/ˈhezɪteɪt/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to be slow to speak or act because you feel uncertain or nervous</t>
+  </si>
+  <si>
+    <t>hesitate about/over something When she hesitated over her order, the waiter gave her an impatient look.</t>
+  </si>
+  <si>
+    <t>satisfy</t>
+  </si>
+  <si>
+    <t>/ˈsӕtisfai/</t>
+  </si>
+  <si>
+    <t>to make somebody pleased by doing or giving them what they want</t>
+  </si>
+  <si>
+    <t>The proposed plan will not satisfy everyone.</t>
+  </si>
+  <si>
+    <t>inability</t>
+  </si>
+  <si>
+    <t>Làm hài lòng</t>
+  </si>
+  <si>
+    <t>Sự bất tài</t>
+  </si>
+  <si>
+    <t>/ˌɪnəˈbɪləti/</t>
+  </si>
+  <si>
+    <t>inability (to do something) the fact of not being able to do something</t>
+  </si>
+  <si>
+    <t>the government’s inability to provide basic services</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>Phát hành</t>
+  </si>
+  <si>
+    <t>/ˈɪʃuː/</t>
+  </si>
+  <si>
+    <t>an important topic that people are discussing or arguing about</t>
+  </si>
+  <si>
+    <t>This is a big issue; we need more time to think about it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frustrated </t>
+  </si>
+  <si>
+    <t>Không hài lòng, nản lòng</t>
+  </si>
+  <si>
+    <t>feeling annoyed and impatient because you cannot do or achieve what you want</t>
+  </si>
+  <si>
+    <t>frustrated at/with something They felt frustrated at the lack of progress.</t>
+  </si>
+  <si>
+    <t>/frʌˈstreɪtɪd/</t>
   </si>
 </sst>
 </file>
@@ -980,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A27D3A8-4935-4F85-8766-19729B16688D}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1413,6 +1596,12 @@
       <c r="C19" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>111</v>
       </c>
@@ -1484,6 +1673,192 @@
       </c>
       <c r="G22" s="2" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/600 Essential Words.xlsx
+++ b/600 Essential Words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\24_Tieng_Anh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A4DD90-CB08-403B-BCA9-48551876FD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0201E036-F55C-4EC1-9D7D-B86B1BD501D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="265">
   <si>
     <t>New word</t>
   </si>
@@ -785,12 +785,309 @@
   <si>
     <t>/frʌˈstreɪtɪd/</t>
   </si>
+  <si>
+    <t>adv</t>
+  </si>
+  <si>
+    <t>/əˈtrækt/</t>
+  </si>
+  <si>
+    <t>Thu hút, hấp dẫn</t>
+  </si>
+  <si>
+    <t>to draw by appeal</t>
+  </si>
+  <si>
+    <t>if you are attracted by something, it interests you and makes you want it; if you are attracted by somebody, you like or admire them</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> be attracted by somebody/something I had always been attracted by the idea of working abroad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to examine people or things to see how they are similar and how they are different</t>
+  </si>
+  <si>
+    <t>compare A and B It is interesting to compare their situation and ours.</t>
+  </si>
+  <si>
+    <t>So sánh</t>
+  </si>
+  <si>
+    <t>/kəmˈpeə(r)/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> an event in which people compete with each other to find out who is the best at something</t>
+  </si>
+  <si>
+    <t>/ˌkɒmpəˈtɪʃn/</t>
+  </si>
+  <si>
+    <t>Cạnh tranh</t>
+  </si>
+  <si>
+    <t>/kənˈsjuːm/</t>
+  </si>
+  <si>
+    <t>Tiêu thụ</t>
+  </si>
+  <si>
+    <t>consume something to use something, especially fuel, energy or time</t>
+  </si>
+  <si>
+    <t>The electricity industry consumes large amounts of fossil fuels.</t>
+  </si>
+  <si>
+    <t>/kənˈvɪns/</t>
+  </si>
+  <si>
+    <t>Thuyết phục</t>
+  </si>
+  <si>
+    <t>to make somebody/yourself believe that something is true</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>convince somebody/yourself of something</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> You'll need to convince them of your enthusiasm for the job.</t>
+    </r>
+  </si>
+  <si>
+    <t>at the present time</t>
+  </si>
+  <si>
+    <t>Hiện nay</t>
+  </si>
+  <si>
+    <t>/ˈkʌrəntli/</t>
+  </si>
+  <si>
+    <t>The hourly charge is currently £35.</t>
+  </si>
+  <si>
+    <t>/fæd/</t>
+  </si>
+  <si>
+    <t>craze</t>
+  </si>
+  <si>
+    <t>a fad for physical fitness</t>
+  </si>
+  <si>
+    <t>something that people are interested in for only a short period of time</t>
+  </si>
+  <si>
+    <t>mốt mới nhất</t>
+  </si>
+  <si>
+    <t>/ˌɪnspəˈreɪʃn/</t>
+  </si>
+  <si>
+    <t>cảm hứng</t>
+  </si>
+  <si>
+    <t>the process that takes place when somebody sees or hears something that causes them to have exciting new ideas or makes them want to create something, especially in art, music or literature</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inspiration for something</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Looking for inspiration for a new dessert? Try this recipe.</t>
+    </r>
+  </si>
+  <si>
+    <t>/ˈmɑːkɪt/</t>
+  </si>
+  <si>
+    <t>an occasion when people buy and sell goods; the open area or building where they meet to do this</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at the market</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> We buy our fruit and vegetables at the market.</t>
+    </r>
+  </si>
+  <si>
+    <t>Chợ, thị trường</t>
+  </si>
+  <si>
+    <t>/pəˈsweɪʒn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the act of persuading somebody to do something or to believe something</t>
+  </si>
+  <si>
+    <t>After a little gentle persuasion, he agreed to come.</t>
+  </si>
+  <si>
+    <t>Sự thuyết phục</t>
+  </si>
+  <si>
+    <t>/prəˈdʌktɪv/</t>
+  </si>
+  <si>
+    <t>making goods or growing crops, especially in large quantities</t>
+  </si>
+  <si>
+    <t>The aim was to maximize the machine’s productive capacity.</t>
+  </si>
+  <si>
+    <t>Năng suất</t>
+  </si>
+  <si>
+    <t>Sự thỏa mản, hài lòng</t>
+  </si>
+  <si>
+    <t>/ˌsætɪsˈfækʃn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the good feeling that you have when you have achieved something or when something that you wanted to happen does happen; something that gives you this feeling</t>
+  </si>
+  <si>
+    <t>with satisfaction She looked back on her career with great satisfaction.</t>
+  </si>
+  <si>
+    <t>call for somebody to do something</t>
+  </si>
+  <si>
+    <t>yêu cầu ai làm gì đó</t>
+  </si>
+  <si>
+    <t>calls for the union to specify</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
+    <t>Tình hình trạng thái</t>
+  </si>
+  <si>
+    <t>People are fed up with the present situation.</t>
+  </si>
+  <si>
+    <t>all the circumstances and things that are happening at a particular time and in a particular place</t>
+  </si>
+  <si>
+    <t>/ˌsɪtʃuˈeɪʃn/</t>
+  </si>
+  <si>
+    <t>pertain to something</t>
+  </si>
+  <si>
+    <t>Đề xuất</t>
+  </si>
+  <si>
+    <t>We are only interested in the parts of the proposals that pertain to local issues.</t>
+  </si>
+  <si>
+    <t>/pɜːˈteɪn/</t>
+  </si>
+  <si>
+    <t>a sum of money that is given as the first part of a larger payment</t>
+  </si>
+  <si>
+    <t>down payment</t>
+  </si>
+  <si>
+    <t>deposite</t>
+  </si>
+  <si>
+    <t>/dɪˈpɒzɪt/</t>
+  </si>
+  <si>
+    <t>They normally ask you to pay $100 (as a) deposit.</t>
+  </si>
+  <si>
+    <t>tiền cọc</t>
+  </si>
+  <si>
+    <t>/dɪˈspjuːt/</t>
+  </si>
+  <si>
+    <t>dispute</t>
+  </si>
+  <si>
+    <t>Tranh luận</t>
+  </si>
+  <si>
+    <t>an argument between two people, groups or countries; discussion about a subject on which people disagree</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dispute between A and B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> a dispute between the two countries about the border</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,6 +1107,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1163,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A27D3A8-4935-4F85-8766-19729B16688D}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1859,6 +2164,97 @@
       </c>
       <c r="G31" s="2" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -1912,18 +2308,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E67EC8-FDA7-4670-9A5F-4B6B3A3B70CF}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" customWidth="1"/>
     <col min="8" max="8" width="38.5703125" customWidth="1"/>
   </cols>
@@ -1958,60 +2354,243 @@
       <c r="A2" t="s">
         <v>126</v>
       </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>128</v>
       </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
       </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>131</v>
       </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>132</v>
       </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>133</v>
       </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G9" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>134</v>
       </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>135</v>
       </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>136</v>
       </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>137</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/600 Essential Words.xlsx
+++ b/600 Essential Words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\24_Tieng_Anh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0201E036-F55C-4EC1-9D7D-B86B1BD501D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96E35AD-EC02-4169-9505-7160D1E7D7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="290">
   <si>
     <t>New word</t>
   </si>
@@ -1081,6 +1081,81 @@
       </rPr>
       <t xml:space="preserve"> a dispute between the two countries about the border</t>
     </r>
+  </si>
+  <si>
+    <t>characteristic</t>
+  </si>
+  <si>
+    <t>consequence</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>expiration</t>
+  </si>
+  <si>
+    <t>frequently</t>
+  </si>
+  <si>
+    <t>imply</t>
+  </si>
+  <si>
+    <t>promise</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>requtation</t>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>demonstrate</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>evaluate</t>
+  </si>
+  <si>
+    <t>gather</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>primarily</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>substitution</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E67EC8-FDA7-4670-9A5F-4B6B3A3B70CF}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -2600,10 +2675,119 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CABAF6-FA53-4D3E-8A12-7EDBC9D7D268}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706A808F-52EA-4095-A8AC-2E25ADECFB0A}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2634,45 +2818,64 @@
         <v>4</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706A808F-52EA-4095-A8AC-2E25ADECFB0A}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/600 Essential Words.xlsx
+++ b/600 Essential Words.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\24_Tieng_Anh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96E35AD-EC02-4169-9505-7160D1E7D7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCFAA30-5D6D-4583-A6DF-910482707624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{FC1C4FF0-C0A7-4F45-BC25-3E33485824BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contracts" sheetId="1" r:id="rId1"/>
     <sheet name="Marketing" sheetId="2" r:id="rId2"/>
     <sheet name="Warranties" sheetId="3" r:id="rId3"/>
     <sheet name="Bussines Planning" sheetId="4" r:id="rId4"/>
-    <sheet name="Conferences" sheetId="5" r:id="rId5"/>
-    <sheet name="Computer" sheetId="6" r:id="rId6"/>
-    <sheet name="Office Technology" sheetId="7" r:id="rId7"/>
-    <sheet name="Office Procedures" sheetId="8" r:id="rId8"/>
-    <sheet name="Electronics" sheetId="9" r:id="rId9"/>
-    <sheet name="Correspondence" sheetId="10" r:id="rId10"/>
+    <sheet name="Job Advertising and Recruiting" sheetId="11" r:id="rId5"/>
+    <sheet name="Apply and Interviewing" sheetId="12" r:id="rId6"/>
+    <sheet name="Conferences" sheetId="5" r:id="rId7"/>
+    <sheet name="Computer" sheetId="6" r:id="rId8"/>
+    <sheet name="Office Technology" sheetId="7" r:id="rId9"/>
+    <sheet name="Office Procedures" sheetId="8" r:id="rId10"/>
+    <sheet name="Electronics" sheetId="9" r:id="rId11"/>
+    <sheet name="Correspondence" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="450">
   <si>
     <t>New word</t>
   </si>
@@ -1157,12 +1159,549 @@
   <si>
     <t>substitution</t>
   </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>promoting</t>
+  </si>
+  <si>
+    <t>willing</t>
+  </si>
+  <si>
+    <t>continually</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>/ˈriːəlaɪz/</t>
+  </si>
+  <si>
+    <t>to understand or become aware of a particular fact or situation</t>
+  </si>
+  <si>
+    <t>I finally came to realize that he would never change.</t>
+  </si>
+  <si>
+    <t>nhận ra, thực hiện</t>
+  </si>
+  <si>
+    <t>yêu cầu</t>
+  </si>
+  <si>
+    <t>/dɪˈmɑːnd/</t>
+  </si>
+  <si>
+    <t>demand that… demands that the law on gun ownership should be changed</t>
+  </si>
+  <si>
+    <t>a very strong request for something; something that somebody needs</t>
+  </si>
+  <si>
+    <t>/prəˈməʊt/</t>
+  </si>
+  <si>
+    <t>to help sell a product, service, etc. or make it more popular by advertising it or offering it at a special price</t>
+  </si>
+  <si>
+    <t>promote something The band have gone on tour to promote their new album.</t>
+  </si>
+  <si>
+    <t>thăng chức</t>
+  </si>
+  <si>
+    <t>willing (to do something) not objecting to doing something; having no reason for not doing something</t>
+  </si>
+  <si>
+    <t>Many consumers are willing to pay more for organic food</t>
+  </si>
+  <si>
+    <t>/ˈwɪlɪŋ/</t>
+  </si>
+  <si>
+    <t>sẵn sàn</t>
+  </si>
+  <si>
+    <t>không ngừng</t>
+  </si>
+  <si>
+    <t>/kənˈtɪnjuəli/</t>
+  </si>
+  <si>
+    <t>in a way that is repeated many times so that it is annoying</t>
+  </si>
+  <si>
+    <t>They argue continually about money.</t>
+  </si>
+  <si>
+    <t>/ɪˈspeʃəli/</t>
+  </si>
+  <si>
+    <t>more with one person, thing, etc. than with others, or more in particular circumstances than in others</t>
+  </si>
+  <si>
+    <t>particularly</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>especially + adv./prep.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I love Rome, especially in the spring.</t>
+    </r>
+  </si>
+  <si>
+    <t>đặc biệt là</t>
+  </si>
+  <si>
+    <t>figures</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>manufactured</t>
+  </si>
+  <si>
+    <t>ingredients</t>
+  </si>
+  <si>
+    <t>popularity</t>
+  </si>
+  <si>
+    <t>cosmetic</t>
+  </si>
+  <si>
+    <t>entirely</t>
+  </si>
+  <si>
+    <t>Therefore</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>stereos</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>dryer</t>
+  </si>
+  <si>
+    <t>manner</t>
+  </si>
+  <si>
+    <t>abundant</t>
+  </si>
+  <si>
+    <t>accomplishment</t>
+  </si>
+  <si>
+    <t>bring together</t>
+  </si>
+  <si>
+    <t>candidate</t>
+  </si>
+  <si>
+    <t>come up with</t>
+  </si>
+  <si>
+    <t>commensurate</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>qualifications</t>
+  </si>
+  <si>
+    <t>recruit</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>time-consuming</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>be ready for</t>
+  </si>
+  <si>
+    <t>call in</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>constantly</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>follow up</t>
+  </si>
+  <si>
+    <t>hesitant</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>weakly</t>
+  </si>
+  <si>
+    <t>plentiful</t>
+  </si>
+  <si>
+    <t>/əˈbʌndənt/</t>
+  </si>
+  <si>
+    <t>existing in large quantities; more than enough</t>
+  </si>
+  <si>
+    <t>nhiều</t>
+  </si>
+  <si>
+    <t>Fish are abundant in the lake.</t>
+  </si>
+  <si>
+    <t>/əˈkʌmplɪʃmənt/</t>
+  </si>
+  <si>
+    <t>achievement</t>
+  </si>
+  <si>
+    <t>an impressive thing that is done or achieved after a lot of work</t>
+  </si>
+  <si>
+    <t>hoàn thành, tài năng</t>
+  </si>
+  <si>
+    <t>It was one of the President's greatest accomplishments.</t>
+  </si>
+  <si>
+    <t>/ˈkændɪdət/</t>
+  </si>
+  <si>
+    <t>a person who is trying to be elected or is applying for a job</t>
+  </si>
+  <si>
+    <t>Ứng viên</t>
+  </si>
+  <si>
+    <t>candidate for something one of the leading candidates for the presidency</t>
+  </si>
+  <si>
+    <t>to find or produce an answer, a sum of money, etc.</t>
+  </si>
+  <si>
+    <t>She came up with a new idea for increasing sales</t>
+  </si>
+  <si>
+    <t>nảy ra, đề xuất</t>
+  </si>
+  <si>
+    <t>S + come up with + Something (Danh từ/Cụm danh từ)</t>
+  </si>
+  <si>
+    <t>Think of, Devise, Suggest, Create, Improvise</t>
+  </si>
+  <si>
+    <t>/kəˈmenʃərət/</t>
+  </si>
+  <si>
+    <t>commensurate (with something) matching something in size, importance, quality, etc.</t>
+  </si>
+  <si>
+    <t>Salary will be commensurate with experience.</t>
+  </si>
+  <si>
+    <t>cân xứng</t>
+  </si>
+  <si>
+    <t>/mætʃ/</t>
+  </si>
+  <si>
+    <t>Phù hợp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a person who is equal to somebody else in strength, skill, intelligence, etc.</t>
+  </si>
+  <si>
+    <t>somebody’s match (at something) I was his match at tennis</t>
+  </si>
+  <si>
+    <t>/ˈprəʊfaɪl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a description of somebody/something that gives useful information</t>
+  </si>
+  <si>
+    <t>Mô tả bản thân</t>
+  </si>
+  <si>
+    <t>We first build up a detailed profile of our customers and their requirements.</t>
+  </si>
+  <si>
+    <t>/ˌkwɒlɪfɪˈkeɪʃn/</t>
+  </si>
+  <si>
+    <t>an exam that you have passed or a course of study that you have successfully completed</t>
+  </si>
+  <si>
+    <t>năng lực, khả năng</t>
+  </si>
+  <si>
+    <t>/rɪˈkruːt/</t>
+  </si>
+  <si>
+    <t>to find new people to join a company, an organization, the armed forces, etc.</t>
+  </si>
+  <si>
+    <t>người mới</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">qualification in something </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Too many school-leavers lack basic qualifications in English and Maths</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> recruit (somebody)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> We are trying to recruit officers from more diverse backgrounds.</t>
+    </r>
+  </si>
+  <si>
+    <t>/səbˈmɪt/</t>
+  </si>
+  <si>
+    <t>to give a document, proposal, etc. to somebody in authority so that they can study or consider it</t>
+  </si>
+  <si>
+    <t>nộp hồ sơ</t>
+  </si>
+  <si>
+    <t>Completed projects must be submitted by 10 March.</t>
+  </si>
+  <si>
+    <t>/ˈtaɪm kənsjuːmɪŋ/</t>
+  </si>
+  <si>
+    <t>taking or needing a lot of time</t>
+  </si>
+  <si>
+    <t>tốn nhiều thời gian</t>
+  </si>
+  <si>
+    <t>a difficult and time-consuming process</t>
+  </si>
+  <si>
+    <t>khả năng</t>
+  </si>
+  <si>
+    <t>/əˈbɪləti/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ability to do something the fact that somebody/something is able to do something</t>
+  </si>
+  <si>
+    <t>People with the disease may lose their ability to communicate.</t>
+  </si>
+  <si>
+    <t>/əˈplaɪ/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to make a formal request, usually in writing, for something such as a job, a loan, permission for something, a place at a university, etc.</t>
+  </si>
+  <si>
+    <t>apply for something I have decided to apply for this new job.</t>
+  </si>
+  <si>
+    <t>xin việc</t>
+  </si>
+  <si>
+    <t>the details of a person’s family, education, experience, etc.</t>
+  </si>
+  <si>
+    <t>/ˈbækɡraʊnd/</t>
+  </si>
+  <si>
+    <t>somebody's family/educational background</t>
+  </si>
+  <si>
+    <t>gắn kết, tập hợp</t>
+  </si>
+  <si>
+    <t>Bring something/someone together.
+Bring together something/someone.</t>
+  </si>
+  <si>
+    <t>gather, Combine</t>
+  </si>
+  <si>
+    <t>sẵn sàn cho việc gì đó</t>
+  </si>
+  <si>
+    <t>to phone a place, especially the place where you work</t>
+  </si>
+  <si>
+    <t>Several people have called in sick today.</t>
+  </si>
+  <si>
+    <t>gọi đến</t>
+  </si>
+  <si>
+    <t>/ˈkɒnfɪdəns/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the feeling that you can trust, believe in and be sure about the abilities or good qualities of somebody/something</t>
+  </si>
+  <si>
+    <t>The president's actions hardly inspire confidence.</t>
+  </si>
+  <si>
+    <t>sự tin cậy</t>
+  </si>
+  <si>
+    <t>all the time; repeatedly</t>
+  </si>
+  <si>
+    <t>luôn luôn</t>
+  </si>
+  <si>
+    <t>I am constantly reminded how fortunate I am</t>
+  </si>
+  <si>
+    <t>/ˈkɒnstəntli/</t>
+  </si>
+  <si>
+    <t>/ˈekspɜːt/</t>
+  </si>
+  <si>
+    <t>a person with special knowledge, skill or training in something</t>
+  </si>
+  <si>
+    <t>Police consulted their own team of forensic experts.</t>
+  </si>
+  <si>
+    <t>chuyên môn</t>
+  </si>
+  <si>
+    <t>tiếp theo</t>
+  </si>
+  <si>
+    <t>/ˈfɒləʊ ʌp/</t>
+  </si>
+  <si>
+    <t>continuing something that has already started; coming after something similar that was done earlier</t>
+  </si>
+  <si>
+    <t>follow-up treatment at the local hospital</t>
+  </si>
+  <si>
+    <t>/ˈhezɪtənt/</t>
+  </si>
+  <si>
+    <t>slow to speak or act because you feel uncertain, embarrassed or unwilling</t>
+  </si>
+  <si>
+    <t>do dự</t>
+  </si>
+  <si>
+    <t>the baby’s first few hesitant steps</t>
+  </si>
+  <si>
+    <t>/ˈpreznt/</t>
+  </si>
+  <si>
+    <t>existing or happening now</t>
+  </si>
+  <si>
+    <t>I am not satisfied with the present situation.</t>
+  </si>
+  <si>
+    <t>hiện diện có mặt</t>
+  </si>
+  <si>
+    <t>/ˈwiːkli/</t>
+  </si>
+  <si>
+    <t>She smiled weakly at them.</t>
+  </si>
+  <si>
+    <t>in a weak way</t>
+  </si>
+  <si>
+    <t>một cách yếu ớt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,6 +1730,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1212,7 +1757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1229,6 +1774,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1545,7 +2095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A27D3A8-4935-4F85-8766-19729B16688D}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -2339,6 +2889,88 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D63500-8009-457F-B7E9-D441A78DE767}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FEA63D-963C-4996-B845-5326775236FC}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80670381-DD9F-4261-8066-B2BF25AFC9D0}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -2381,10 +3013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E67EC8-FDA7-4670-9A5F-4B6B3A3B70CF}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,6 +3300,169 @@
         <v>241</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E14" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" t="s">
+        <v>299</v>
+      </c>
+      <c r="F15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" t="s">
+        <v>307</v>
+      </c>
+      <c r="G17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E18" t="s">
+        <v>311</v>
+      </c>
+      <c r="F18" t="s">
+        <v>313</v>
+      </c>
+      <c r="G18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19" t="s">
+        <v>319</v>
+      </c>
+      <c r="F19" t="s">
+        <v>316</v>
+      </c>
+      <c r="G19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2675,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CABAF6-FA53-4D3E-8A12-7EDBC9D7D268}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,8 +3568,31 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>328</v>
+      </c>
       <c r="H14" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2786,8 +3604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706A808F-52EA-4095-A8AC-2E25ADECFB0A}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2884,6 +3702,575 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0275A59F-D494-4E9E-B06C-5356226C8E68}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="41" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="43.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D961F1C-968A-4273-B08F-D7627DCA04E6}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E8" t="s">
+        <v>427</v>
+      </c>
+      <c r="F8" t="s">
+        <v>426</v>
+      </c>
+      <c r="G8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E9" t="s">
+        <v>433</v>
+      </c>
+      <c r="F9" t="s">
+        <v>431</v>
+      </c>
+      <c r="G9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F10" t="s">
+        <v>436</v>
+      </c>
+      <c r="G10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>438</v>
+      </c>
+      <c r="E11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F11" t="s">
+        <v>439</v>
+      </c>
+      <c r="G11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>355</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>442</v>
+      </c>
+      <c r="E12" t="s">
+        <v>445</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="G12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" t="s">
+        <v>446</v>
+      </c>
+      <c r="E13" t="s">
+        <v>449</v>
+      </c>
+      <c r="F13" t="s">
+        <v>448</v>
+      </c>
+      <c r="G13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2231605C-DA64-4042-9E8B-22EE8F4A938D}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -2924,7 +4311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4736383-45A5-49CE-B63B-BA660809F3A0}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -2965,7 +4352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3A5951-23B9-4BBC-8127-9872C4CCF12A}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -3004,86 +4391,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D63500-8009-457F-B7E9-D441A78DE767}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FEA63D-963C-4996-B845-5326775236FC}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>